--- a/data/534/MOSPI/NAD/AQEGConstant_A_historical.xlsx
+++ b/data/534/MOSPI/NAD/AQEGConstant_A_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AQEGConstant_A" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,41 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>GNI</t>
-  </si>
-  <si>
-    <t>NNI</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>GFCE</t>
-  </si>
-  <si>
-    <t>PFCE</t>
-  </si>
-  <si>
-    <t>GFCF</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>Valuables</t>
-  </si>
-  <si>
-    <t>Exports of goods and services</t>
-  </si>
-  <si>
-    <t>Imports of goods and services</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,7 +366,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1">
       <c r="B1" s="1" t="n">
         <v>1950</v>
       </c>
@@ -616,9 +581,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GNI</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>495274.232182372</v>
@@ -834,9 +801,11 @@
         <v>13384611.75626068</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NNI</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>448482.706133708</v>
@@ -1052,9 +1021,11 @@
         <v>11745871.59190814</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>496848.122671406</v>
@@ -1270,9 +1241,11 @@
         <v>13512740.2869318</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GFCE</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>27805.2290828674</v>
@@ -1488,9 +1461,11 @@
         <v>1586744.524699976</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PFCE</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>412309.126431194</v>
@@ -1706,9 +1681,11 @@
         <v>7560985.474970633</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GFCF</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>80759.1630669031</v>
@@ -1924,9 +1901,11 @@
         <v>4220508.206790288</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>7468.49827131145</v>
@@ -2142,59 +2121,61 @@
         <v>154275.7655606024</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Valuables</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="n">
         <v>35662.5281687906</v>
       </c>
@@ -2262,9 +2243,11 @@
         <v>167784.232532512</v>
       </c>
     </row>
-    <row r="10" spans="1:72">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Exports of goods and services</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>31816.3810744503</v>
@@ -2480,9 +2463,11 @@
         <v>2694386.470657649</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Imports of goods and services</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>33843.2646633218</v>

--- a/data/534/MOSPI/NAD/AQEGConstant_A_historical.xlsx
+++ b/data/534/MOSPI/NAD/AQEGConstant_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT11"/>
+  <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,9 @@
       <c r="BT1" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="BU1" s="1" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -792,13 +795,16 @@
         <v>12998694.53403586</v>
       </c>
       <c r="BR2" t="n">
-        <v>13850856.77933641</v>
+        <v>13840473.7464021</v>
       </c>
       <c r="BS2" t="n">
-        <v>14427631.53656353</v>
+        <v>14374253.26197492</v>
       </c>
       <c r="BT2" t="n">
-        <v>13384611.75626068</v>
+        <v>13368278.71959408</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>14536731.86417343</v>
       </c>
     </row>
     <row r="3">
@@ -1012,13 +1018,16 @@
         <v>11508773.71825344</v>
       </c>
       <c r="BR3" t="n">
-        <v>12240379.57506449</v>
+        <v>12226018.68420276</v>
       </c>
       <c r="BS3" t="n">
-        <v>12681245.79207709</v>
+        <v>12641633.01826231</v>
       </c>
       <c r="BT3" t="n">
-        <v>11745871.59190814</v>
+        <v>11536003.8047201</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>12553096.65984885</v>
       </c>
     </row>
     <row r="4">
@@ -1232,13 +1241,16 @@
         <v>13144582.14473912</v>
       </c>
       <c r="BR4" t="n">
-        <v>14003316.25185184</v>
+        <v>13992913.9362789</v>
       </c>
       <c r="BS4" t="n">
-        <v>14569267.86607851</v>
+        <v>14515957.65773185</v>
       </c>
       <c r="BT4" t="n">
-        <v>13512740.2869318</v>
+        <v>13558473.40203544</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>14771680.54056545</v>
       </c>
     </row>
     <row r="5">
@@ -1452,13 +1464,16 @@
         <v>1344842.633082746</v>
       </c>
       <c r="BR5" t="n">
-        <v>1429054.662528102</v>
+        <v>1434945.197110251</v>
       </c>
       <c r="BS5" t="n">
-        <v>1541741.532584885</v>
+        <v>1484272.384320159</v>
       </c>
       <c r="BT5" t="n">
-        <v>1586744.524699976</v>
+        <v>1537603.49465475</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1611821.129413812</v>
       </c>
     </row>
     <row r="6">
@@ -1672,13 +1687,16 @@
         <v>7330728.485608376</v>
       </c>
       <c r="BR6" t="n">
-        <v>7884423.402217585</v>
+        <v>7850443.899478033</v>
       </c>
       <c r="BS6" t="n">
-        <v>8321700.62436832</v>
+        <v>8259704.344947293</v>
       </c>
       <c r="BT6" t="n">
-        <v>7560985.474970633</v>
+        <v>7763733.859067322</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>8355832.645318739</v>
       </c>
     </row>
     <row r="7">
@@ -1892,13 +1910,16 @@
         <v>4083079.090914966</v>
       </c>
       <c r="BR7" t="n">
-        <v>4486204.722355399</v>
+        <v>4540509.24162885</v>
       </c>
       <c r="BS7" t="n">
-        <v>4730416.263383496</v>
+        <v>4611021.475468159</v>
       </c>
       <c r="BT7" t="n">
-        <v>4220508.206790288</v>
+        <v>4131279.06927041</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4732872.462901314</v>
       </c>
     </row>
     <row r="8">
@@ -2112,13 +2133,16 @@
         <v>206436.2663739578</v>
       </c>
       <c r="BR8" t="n">
-        <v>262639.2370676477</v>
+        <v>262770.7938247246</v>
       </c>
       <c r="BS8" t="n">
-        <v>158385.3593896772</v>
+        <v>108283.5538340723</v>
       </c>
       <c r="BT8" t="n">
-        <v>154275.7655606024</v>
+        <v>-11572.85500163805</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>187937.3580879128</v>
       </c>
     </row>
     <row r="9">
@@ -2240,7 +2264,10 @@
         <v>164526.7578759596</v>
       </c>
       <c r="BT9" t="n">
-        <v>167784.232532512</v>
+        <v>207980.2524239387</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>339088.0499949522</v>
       </c>
     </row>
     <row r="10">
@@ -2454,13 +2481,16 @@
         <v>2602011.798064813</v>
       </c>
       <c r="BR10" t="n">
-        <v>2923273.478713462</v>
+        <v>2912480.482621648</v>
       </c>
       <c r="BS10" t="n">
-        <v>2826638.805353941</v>
+        <v>2813609.381218706</v>
       </c>
       <c r="BT10" t="n">
-        <v>2694386.470657649</v>
+        <v>2553682.949099156</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>3091630.580854979</v>
       </c>
     </row>
     <row r="11">
@@ -2674,13 +2704,16 @@
         <v>3078273.807799204</v>
       </c>
       <c r="BR11" t="n">
-        <v>3343220.116983087</v>
+        <v>3349860.571060546</v>
       </c>
       <c r="BS11" t="n">
-        <v>3317164.753862006</v>
+        <v>3321585.712311832</v>
       </c>
       <c r="BT11" t="n">
-        <v>2865827.376501367</v>
+        <v>2862871.268077738</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3718262.522468137</v>
       </c>
     </row>
   </sheetData>

--- a/data/534/MOSPI/NAD/AQEGConstant_A_historical.xlsx
+++ b/data/534/MOSPI/NAD/AQEGConstant_A_historical.xlsx
@@ -1,37 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AQEGConstant_A" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AQEGConstant_A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>GNI</t>
+  </si>
+  <si>
+    <t>NNI</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>GFCE</t>
+  </si>
+  <si>
+    <t>PFCE</t>
+  </si>
+  <si>
+    <t>GFCF</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>Valuables</t>
+  </si>
+  <si>
+    <t>Exports of goods and services</t>
+  </si>
+  <si>
+    <t>Imports of goods and services</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +84,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +103,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2370 +400,2295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BU11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:73">
+      <c r="B1" s="1">
         <v>1950</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1951</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1952</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1953</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1954</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1955</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1956</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1957</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1958</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1959</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1960</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1961</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1962</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1963</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1964</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1965</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1966</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1967</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1968</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1969</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1970</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1971</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1972</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1973</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1974</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1975</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1976</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1977</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1978</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1979</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>1980</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>1981</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>1982</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>1983</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>1984</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>1985</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>1986</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>1987</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>1988</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>1989</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>1990</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>1991</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>1992</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>1993</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>1994</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>1995</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>1996</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>1997</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>1998</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>1999</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>2000</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="1">
         <v>2001</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="1">
         <v>2002</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="1">
         <v>2003</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="1">
         <v>2004</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="1">
         <v>2005</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="1">
         <v>2006</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="1">
         <v>2007</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="1">
         <v>2008</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="1">
         <v>2009</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="1">
         <v>2010</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="1">
         <v>2011</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="1">
         <v>2012</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="1">
         <v>2013</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="1">
         <v>2014</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="1">
         <v>2015</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="1">
         <v>2016</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="1">
         <v>2017</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="1">
         <v>2018</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="1">
         <v>2019</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="1">
         <v>2020</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>GNI</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:73">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>495274.232182372</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>510504.861135005</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>524122.13933652</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>556544.714701343</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>583005.425456916</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>602536.72565472</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>635961.887714688</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>633039.1996499459</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>679555.305916859</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>696487.798311047</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>734466.111377161</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>761037.597224214</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>782930.812857968</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>830072.033857774</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>891110.800295164</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>867164.892737972</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>866818.480990378</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>933849.64246957</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>966013.684230624</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>1029150.61372149</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>1082340.46086233</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>1100362.90026361</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>1094794.86901694</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>1131632.87830108</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>1146338.77096615</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>1252240.02012944</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>1273436.08708075</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>1366654.54326135</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>1445029.37775881</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>1371460.21504224</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>1464389.62687151</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>1550503.94713892</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>1599939.73972276</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>1716327.36242405</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>1779406.17180267</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>1873425.37552578</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>1962251.48202596</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>2036744.49244494</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>2227955.99824947</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>2360178.09308746</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>2486353.43099649</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>2511621.9237158</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>2650632.10310232</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>2780662.82703956</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>2967253.67831887</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>3192012.90089548</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>3436436.4415038</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>3581984.05199056</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>3803494.72289038</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>4139291.96406222</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>4286909.64872601</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>4499694.54886837</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>4676256.6819902</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>5043422.21603232</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>5442938.2317769</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>5872935.8867433</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>6342388.80945832</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>6852739.52575948</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>7052190.95577247</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>7606319.37372597</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>8211815.92587726</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>8659504.810891019</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>9104662.301865498</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>9679026.963708727</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>10402987.09272911</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>11234571.04879332</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>12163618.55325642</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>12998694.53403586</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>13840473.7464021</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>14374253.26197492</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>13368278.71959408</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>14536731.86417343</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>NNI</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:73">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>448482.706133708</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>465486.241657344</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>480730.951867261</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>514489.054468572</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>548393.167184437</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>567499.293568183</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>599735.964836219</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>595941.348874568</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>640433.007243194</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>656423.45459071</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>694569.446545909</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>719592.175931277</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>739509.096541815</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>784624.502463607</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>842755.4569743969</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>816540.3508014</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>812952.371228104</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>876627.809829497</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>905883.874132475</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>965199.769661099</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>1011756.95607883</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>1026822.28534308</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>1018453.33457247</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>1052121.73205643</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>1062258.67892206</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>1164066.44597561</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>1179925.2300082</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>1269352.20393522</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>1343841.30996222</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>1265522.45449277</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>1352931.03487131</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>1433659.44533899</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>1476733.18589995</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>1587881.73730067</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>1642627.51573015</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>1728209.16532528</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>1808778.38254432</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>1872727.05538685</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>2055936.75692425</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>2178379.00553517</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>2292078.36876344</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>2303954.12742338</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>2431153.56933778</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>2551800.00089241</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>2723964.44607074</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>2934298.21924435</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>3163036.81962375</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>3287915.46273472</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>3489318.15787068</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>3800559.5858577</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>3924698.03191764</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>4112858.38957688</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>4268229.72085394</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>4609080.93247721</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>4967089.90300328</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>5351624.0921927</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>5770565.49264372</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>6219064.52603955</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>6358643.70830521</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>6837718.56417627</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>7373384.01365505</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>7742329.87007996</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>8094001.226039404</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>8578417.079667186</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>9224342.854761338</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>9963680.650554379</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>10782092.21952755</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>11508773.71825344</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>12226018.68420276</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>12641633.01826231</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>11536003.8047201</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>12553096.65984885</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>GDP</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:73">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>496848.122671406</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>511489.409370436</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>524919.4847384529</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>557203.391337723</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>584010.77400718</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>602911.131321714</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>636544.296530013</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>633926.6797494889</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>680775.591053732</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>698644.097615407</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>737043.629418746</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>764481.86609566</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>786889.806114526</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>834058.7608674431</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>896220.744305818</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>872598.4258090979</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>872115.627834529</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>940367.074450593</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>972226.04492743</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>1035806.71446806</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>1089225.64635495</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>1107120.86544801</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>1100995.15116988</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>1137278.67907447</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>1150759.25563866</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>1256052.71503183</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>1276942.1734133</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>1369581.32199169</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>1447819.09449544</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>1371979.6851199</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>1464393.78810997</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>1552348.26087839</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>1606303.74538715</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>1723385.50505712</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>1789231.5474532</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>1883243.12675423</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>1973197.44318998</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>2051441.7391716</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>2248950.0965462</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>2382702.88006915</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>2514548.66131062</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>2541123.20196349</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>2680437.63928993</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>2807779.23324124</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>2994747.12036149</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>3221583.99663189</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>3464798.1972235</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>3605116.31699276</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>3828071.70085586</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>4166693.56621716</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>4326735.8976306</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>4535456.17766417</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>4707983.81136965</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>5078049.29874588</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>5480379.92586263</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>5914614.02707598</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>6391375.24652704</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>6881006.68427548</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>7093402.58407513</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>7651078.00971842</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>8301234.84417871</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>8736328.810891019</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>9213016.768599426</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>9801369.82217711</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>10527673.63442432</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>11369493.13595946</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>12308193.22326842</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>13144582.14473912</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>13992913.9362789</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>14515957.65773185</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>13558473.40203544</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>14771680.54056545</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>GFCE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:73">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>27805.2290828674</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>28094.4319216514</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>28126.9092457929</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>28479.520193615</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>28646.546432057</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>29439.9210646568</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>31489.0855640616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>35460.5983447949</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>36717.9347508448</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>37376.760469144</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>39395.0147075876</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>42398.2005989726</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>51155.9938963339</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>62861.8037771248</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>65672.04729958629</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>72037.9534331836</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>73274.2574176484</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>75251.07449919901</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>79199.0808736405</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>86684.1354808871</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>94911.4413692377</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>104214.456393135</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>105213.318625419</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>105065.601608123</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>101140.382933306</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>110909.320759974</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>119212.67246303</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>123289.139166718</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>132411.181535614</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>140696.759440685</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>147225.021592598</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>153421.870085959</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>168181.144533078</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>175705.734264342</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>188769.653933095</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>208665.374039904</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>228284.045745514</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>246989.650207739</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>260526.819605062</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>274449.591424842</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>283770.74210834</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>283295.207559839</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>293073.095973062</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>310469.16794698</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>314765.010280929</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>339329.734991096</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>355075.6271845</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>395030.391450725</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>443195.093940662</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>495387.442279462</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>502203.298017313</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>514021.652189496</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>513069.433450294</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>527311.515101112</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>548276.322315504</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>596646.211293023</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>620830.6698074701</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>679341.8786031629</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>756542.4058250031</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>863898.689857331</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>909010.499484128</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>968375</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>974262.9696792281</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>979825.1183480672</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>1054150.8794761</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>1132802.497980672</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>1201598.07300673</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>1344842.633082746</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>1434945.197110251</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>1484272.384320159</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>1537603.49465475</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>1611821.129413812</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>PFCE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:73">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>412309.126431194</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>438516.586984611</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>456212.035981037</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>483639.187338653</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>499505.10012878</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>504280.56705597</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>526588.592676744</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>516185.464433111</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>563572.637290064</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>569982.966646986</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>602406.08278076</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>612676.117728169</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>620657.742567374</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>643746.44976152</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>682202.466501731</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>682806.352502507</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>691679.901073122</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>730811.31662999</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>750008.534759925</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>777864.763012829</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>804280.802612567</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>819930.190487942</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>825422.772041054</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>845678.777139454</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>845041.121197845</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>893030.193588465</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>910836.884742929</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>985108.903437063</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>1045316.73500786</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>1021870.46373431</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>1113847.86376041</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>1162284.33557141</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>1173908.7003561</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>1265022.87345402</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>1301485.3755244</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>1355803.62701064</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>1398588.15203409</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>1446522.87599167</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>1536811.59294365</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>1613074.02958038</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>1685121.78424839</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>1721474.22549931</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>1765867.58073663</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>1842628.52814385</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>1932182.42727179</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>2049811.5466107</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>2209156.95360772</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>2275203.15653226</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>2423118.42372011</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>2570428.35640093</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>2658840.53708718</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>2817118.58613591</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>2897983.37108834</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>3069698.17068308</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>3228436.11863523</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>3469138.48142909</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>3640367.36907264</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>3905443.06508279</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>4079321.09800539</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>4283318.85956032</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>4571175.38398798</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>4910447.375045845</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>5179090.921316504</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>5557329.123766179</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>5912656.720889831</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>6381418.715935039</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>6900236.005266465</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>7330728.485608376</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>7850443.899478033</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>8259704.344947293</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>7763733.859067322</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>8355832.645318739</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>GFCF</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:73">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>80759.1630669031</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>78692.0897413731</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>74365.4812594822</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>76722.5741353834</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>87129.9142044154</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>97704.4781624647</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>116847.773185811</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>105727.735998138</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>105561.691033976</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>111299.656951243</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>118710.616714203</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>134420.931071253</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>143252.279060465</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>159940.377831626</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>172265.820008683</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>177802.279511464</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>180330.464999303</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>191983.950294825</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>202242.204264458</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>202380.026403664</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>191154.694492324</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>211029.173664179</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>220098.864549619</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>214295.215984066</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>222538.276746737</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>218545.271919382</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>242436.452086813</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>275224.835842454</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>289459.547851488</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>289271.478207101</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>296163.134197554</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>295789.461713769</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>312490.581365271</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>335400.374623233</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>340990.194004609</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>356695.873826868</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>390688.296731408</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>433844.730376921</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>448865.958209348</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>488046.088932989</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>568474.501284709</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>524681.315467146</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>580297.559893499</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>575503.366558836</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>608646.586810544</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>682415.298557715</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>714509.6672766251</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>779518.7862991981</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>862295.082725403</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>1006653.58841264</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>988594.405791358</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>1207965.73414767</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>1199300.33961439</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>1260656.59494118</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>1405051.84623015</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>1636059.6785551</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>1863048.41824222</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>2167263.70580829</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>2236601.84200337</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>2408303.07583042</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>2674327.74682683</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>2997732.868869198</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>3145793.194808742</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>3194924.310026874</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>3278096.095367952</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>3492183.057645332</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>3787567.619766181</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>4083079.090914966</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>4540509.24162885</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>4611021.475468159</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>4131279.06927041</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>4732872.462901314</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>CIS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:73">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>7468.49827131145</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>7014.0708138711</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1857.99808602458</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-4231.15253372091</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2053.42067853528</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2586.77241938073</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>7900.40434026263</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>12659.6327734671</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>-853.1539528274971</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>7953.73782740694</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>10882.725488569</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>9242.563054274609</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>8006.50889755582</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>6535.63365657906</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>11042.8770495997</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>8337.22145071297</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>11758.9338829712</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>9927.97289670007</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>2548.43530332924</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>12865.9247371013</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>15327.5645991372</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>20343.8009560203</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>5758.43033787735</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>20946.7564013449</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>26395.2949921934</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>3853.11368788415</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>13509.3888162637</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>19996.3766403366</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>38635.3360689484</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>27577.5893549661</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>1782.23775731204</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>41894.9654496457</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>31713.124147498</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>13289.0587417911</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>30854.9666321893</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>48440.2278079941</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>37655.5425589856</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>10671.0556924187</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>42926.3724923965</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>28521.2420721807</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>26750.4528072473</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>-3181.51339426583</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>32554.8905742726</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>-6776.50667767486</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>38234.3461177842</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>60870.0927490939</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>-40056.5736919944</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>30064.440313797</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>-9272.66425648545</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>93929.082308176</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>30759.2612747113</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>-6181.61740211948</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>35605.5222009719</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>38480.5031255661</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>142341.310662149</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>180277.472904871</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>237188.265873186</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>311521.500575526</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>151471.429386928</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>254051.060339208</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>367536.521768708</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>207983.187815356</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>201528</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>129758</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>274751.2112421638</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>239556.8424856793</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>122639.3339211299</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>206436.2663739578</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>262770.7938247246</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>108283.5538340723</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>-11572.85500163805</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>187937.3580879128</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Valuables</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="n">
+    <row r="9" spans="1:73">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY9">
         <v>35662.5281687906</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>32759.6981073084</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>30998.2813031822</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>29712.7693621733</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>49501.6899054061</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>77839.70488452879</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>76626.7089360369</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>87090.8863719955</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>89612.3342449348</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>113738.261394732</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>179220.732600556</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>237367.104397073</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>253033.33328728</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>259949.2792629762</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>148879.093769888</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>187956.7897304769</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>185986.4058157079</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>151478.8726120036</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>212306.5154541958</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>191704.4340833712</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>164526.7578759596</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>207980.2524239387</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>339088.0499949522</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Exports of goods and services</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:73">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>31816.3810744503</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>35447.5955491027</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>31240.5318670274</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>27414.1843304509</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>33303.4565599378</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>36094.5704578687</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>32378.711455401</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>32634.7786518563</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>28209.5309930748</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>29735.1328128898</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>29383.7064043045</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>29329.0899648729</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>29159.0307387331</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>31609.5783962158</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>29551.1469528168</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>25454.1237909854</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>32031.5615756402</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>33619.0891751439</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>34674.0699023859</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>34002.0849327677</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>44732.400450829</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>45203.0019474439</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>48926.7594528116</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>51355.2175689924</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>55566.2413121862</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>64706.2425071183</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>77530.2671845396</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>74764.48635485821</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>80598.38188103271</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>89588.4793390111</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>94280.52336564451</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>93510.31366529581</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>99140.10960105791</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>98233.0586216481</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>105401.961813086</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>98745.92186320529</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>104110.176579833</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>117360.568712297</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>126130.99836676</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>141240.398922232</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>156924.323503598</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>172086.8009577</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>180507.428461916</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>205380.618814157</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>232169.778883193</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>305061.972366719</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>324249.548097204</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>316700.447161068</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>360672.156506341</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>425591.231238553</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>502850.982325505</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>524521.4686954611</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>635116.835135885</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>695975.127028739</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>885116.193721418</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>1115999.41162511</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>1343594.16098668</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>1422416.63712192</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>1632623.28988323</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>1553698.60087054</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>1856330.11895894</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>2143931</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>2289835.984044295</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>2468268.916837573</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>2512144.636384021</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>2370281.636303613</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>2488422.579399369</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>2602011.798064813</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>2912480.482621648</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>2813609.381218706</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>2553682.949099156</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>3091630.580854979</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Imports of goods and services</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:73">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>33843.2646633218</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>47889.8477643313</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>33773.7413892034</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>30560.9423167238</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>39011.3645792323</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>44049.1612553666</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>54571.0083566714</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>58573.0663061483</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>47694.2180502769</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>42450.5657832665</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>49539.1527474158</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>44706.1619963538</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>46453.8221659745</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>48029.5306194622</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>49652.8052096258</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>44163.0878919527</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>56803.5687005871</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>54563.4529105079</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>46727.6084638833</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>40636.6015817568</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>47916.6324285209</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>56555.2745973826</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>55487.2770402784</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>59967.927889972</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>52317.1681311519</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>52986.5460399006</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>53991.2872272167</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>68782.5316160068</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>68816.3339790427</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>82112.2260695709</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>93898.7776270165</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>103316.280802377</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>106885.000901095</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>130382.788786218</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>111698.854451471</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>127192.501164371</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>148922.0285499</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>146437.682329119</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>159901.856094268</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>163234.803728879</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>168728.997897774</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>168754.645524401</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>204409.26087686</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>243793.334450726</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>298894.512458264</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>382961.219336951</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>373617.012611568</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>422937.014242796</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>511100.735817618</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>546839.4908715771</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>571937.873004201</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>588777.14567752</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>659411.676381345</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>750963.845891376</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>917642.034289956</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>1213761.86022999</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>1474777.02988872</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>1621540.75212585</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>1985554.3675929</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>1947316.24032593</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>2255223.77072747</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>2715554</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>2879079.139452964</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>2644555.083500584</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>2667595.260959616</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>2511539.772950992</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>2621592.781150462</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>3078273.807799204</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>3349860.571060546</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>3321585.712311832</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BT11">
         <v>2862871.268077738</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="BU11">
         <v>3718262.522468137</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/534/MOSPI/NAD/AQEGConstant_A_historical.xlsx
+++ b/data/534/MOSPI/NAD/AQEGConstant_A_historical.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AQEGConstant_A" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AQEGConstant_A" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>GNI</t>
-  </si>
-  <si>
-    <t>NNI</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>GFCE</t>
-  </si>
-  <si>
-    <t>PFCE</t>
-  </si>
-  <si>
-    <t>GFCF</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>Valuables</t>
-  </si>
-  <si>
-    <t>Exports of goods and services</t>
-  </si>
-  <si>
-    <t>Imports of goods and services</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -103,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -400,2295 +353,2370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:73">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BR1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BS1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="1" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GNI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>495274.232182372</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>510504.861135005</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>524122.13933652</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>556544.714701343</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>583005.425456916</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>602536.72565472</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>635961.887714688</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>633039.1996499459</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>679555.305916859</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>696487.798311047</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>734466.111377161</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>761037.597224214</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>782930.812857968</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>830072.033857774</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>891110.800295164</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>867164.892737972</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>866818.480990378</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>933849.64246957</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>966013.684230624</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>1029150.61372149</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>1082340.46086233</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>1100362.90026361</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>1094794.86901694</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>1131632.87830108</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>1146338.77096615</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>1252240.02012944</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>1273436.08708075</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>1366654.54326135</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>1445029.37775881</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>1371460.21504224</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>1464389.62687151</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>1550503.94713892</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>1599939.73972276</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>1716327.36242405</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>1779406.17180267</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>1873425.37552578</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>1962251.48202596</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>2036744.49244494</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>2227955.99824947</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>2360178.09308746</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>2486353.43099649</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>2511621.9237158</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>2650632.10310232</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>2780662.82703956</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>2967253.67831887</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>3192012.90089548</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>3436436.4415038</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>3581984.05199056</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>3803494.72289038</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>4139291.96406222</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>4286909.64872601</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>4499694.54886837</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>4676256.6819902</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>5043422.21603232</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>5442938.2317769</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>5872935.8867433</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>6342388.80945832</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>6852739.52575948</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>7052190.95577247</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>7606319.37372597</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>8211815.92587726</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>8659504.810891019</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>9104662.301865498</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>9679026.963708727</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>10402987.09272911</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>11234571.04879332</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>12163618.55325642</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>12998694.53403586</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>13840473.7464021</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>14374253.26197492</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>13368278.71959408</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>14536731.86417343</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>NNI</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>448482.706133708</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>465486.241657344</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>480730.951867261</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>514489.054468572</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>548393.167184437</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>567499.293568183</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>599735.964836219</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>595941.348874568</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>640433.007243194</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>656423.45459071</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>694569.446545909</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>719592.175931277</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>739509.096541815</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>784624.502463607</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>842755.4569743969</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>816540.3508014</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>812952.371228104</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>876627.809829497</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>905883.874132475</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>965199.769661099</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>1011756.95607883</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>1026822.28534308</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>1018453.33457247</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>1052121.73205643</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>1062258.67892206</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>1164066.44597561</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>1179925.2300082</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>1269352.20393522</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>1343841.30996222</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>1265522.45449277</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>1352931.03487131</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>1433659.44533899</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>1476733.18589995</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>1587881.73730067</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>1642627.51573015</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>1728209.16532528</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>1808778.38254432</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>1872727.05538685</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>2055936.75692425</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>2178379.00553517</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>2292078.36876344</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>2303954.12742338</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>2431153.56933778</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>2551800.00089241</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>2723964.44607074</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>2934298.21924435</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>3163036.81962375</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>3287915.46273472</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>3489318.15787068</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>3800559.5858577</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>3924698.03191764</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>4112858.38957688</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>4268229.72085394</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>4609080.93247721</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>4967089.90300328</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>5351624.0921927</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>5770565.49264372</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>6219064.52603955</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>6358643.70830521</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>6837718.56417627</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>7373384.01365505</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>7742329.87007996</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>8094001.226039404</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>8578417.079667186</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>9224342.854761338</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>9963680.650554379</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>10782092.21952755</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>11508773.71825344</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>12226018.68420276</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>12641633.01826231</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>11536003.8047201</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>12553096.65984885</v>
       </c>
     </row>
-    <row r="4" spans="1:73">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>496848.122671406</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>511489.409370436</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>524919.4847384529</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>557203.391337723</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>584010.77400718</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>602911.131321714</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>636544.296530013</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>633926.6797494889</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>680775.591053732</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>698644.097615407</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>737043.629418746</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>764481.86609566</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>786889.806114526</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>834058.7608674431</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>896220.744305818</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>872598.4258090979</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>872115.627834529</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>940367.074450593</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>972226.04492743</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>1035806.71446806</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>1089225.64635495</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>1107120.86544801</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>1100995.15116988</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>1137278.67907447</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>1150759.25563866</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>1256052.71503183</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>1276942.1734133</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>1369581.32199169</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>1447819.09449544</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>1371979.6851199</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>1464393.78810997</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>1552348.26087839</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>1606303.74538715</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>1723385.50505712</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>1789231.5474532</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>1883243.12675423</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>1973197.44318998</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>2051441.7391716</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>2248950.0965462</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>2382702.88006915</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>2514548.66131062</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>2541123.20196349</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>2680437.63928993</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>2807779.23324124</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>2994747.12036149</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>3221583.99663189</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>3464798.1972235</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>3605116.31699276</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>3828071.70085586</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>4166693.56621716</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>4326735.8976306</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>4535456.17766417</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>4707983.81136965</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>5078049.29874588</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>5480379.92586263</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>5914614.02707598</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>6391375.24652704</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>6881006.68427548</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>7093402.58407513</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>7651078.00971842</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>8301234.84417871</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>8736328.810891019</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>9213016.768599426</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>9801369.82217711</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>10527673.63442432</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>11369493.13595946</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>12308193.22326842</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>13144582.14473912</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>13992913.9362789</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>14515957.65773185</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>13558473.40203544</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>14771680.54056545</v>
       </c>
     </row>
-    <row r="5" spans="1:73">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GFCE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>27805.2290828674</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>28094.4319216514</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>28126.9092457929</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>28479.520193615</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>28646.546432057</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>29439.9210646568</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>31489.0855640616</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>35460.5983447949</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>36717.9347508448</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>37376.760469144</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>39395.0147075876</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>42398.2005989726</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>51155.9938963339</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>62861.8037771248</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>65672.04729958629</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>72037.9534331836</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>73274.2574176484</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>75251.07449919901</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>79199.0808736405</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>86684.1354808871</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>94911.4413692377</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>104214.456393135</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>105213.318625419</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>105065.601608123</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>101140.382933306</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>110909.320759974</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>119212.67246303</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>123289.139166718</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>132411.181535614</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>140696.759440685</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>147225.021592598</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>153421.870085959</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>168181.144533078</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>175705.734264342</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>188769.653933095</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>208665.374039904</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>228284.045745514</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>246989.650207739</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>260526.819605062</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>274449.591424842</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>283770.74210834</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>283295.207559839</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>293073.095973062</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>310469.16794698</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>314765.010280929</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>339329.734991096</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>355075.6271845</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>395030.391450725</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>443195.093940662</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>495387.442279462</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>502203.298017313</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>514021.652189496</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>513069.433450294</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>527311.515101112</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>548276.322315504</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>596646.211293023</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>620830.6698074701</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>679341.8786031629</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>756542.4058250031</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>863898.689857331</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>909010.499484128</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>968375</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>974262.9696792281</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>979825.1183480672</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>1054150.8794761</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>1132802.497980672</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>1201598.07300673</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>1344842.633082746</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>1434945.197110251</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>1484272.384320159</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>1537603.49465475</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>1611821.129413812</v>
       </c>
     </row>
-    <row r="6" spans="1:73">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PFCE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>412309.126431194</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>438516.586984611</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>456212.035981037</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>483639.187338653</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>499505.10012878</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>504280.56705597</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>526588.592676744</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>516185.464433111</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>563572.637290064</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>569982.966646986</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>602406.08278076</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>612676.117728169</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>620657.742567374</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>643746.44976152</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>682202.466501731</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>682806.352502507</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>691679.901073122</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>730811.31662999</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>750008.534759925</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>777864.763012829</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>804280.802612567</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>819930.190487942</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>825422.772041054</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>845678.777139454</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>845041.121197845</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>893030.193588465</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>910836.884742929</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>985108.903437063</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>1045316.73500786</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>1021870.46373431</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>1113847.86376041</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>1162284.33557141</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>1173908.7003561</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>1265022.87345402</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>1301485.3755244</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>1355803.62701064</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>1398588.15203409</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>1446522.87599167</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>1536811.59294365</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>1613074.02958038</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>1685121.78424839</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>1721474.22549931</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>1765867.58073663</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>1842628.52814385</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>1932182.42727179</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>2049811.5466107</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>2209156.95360772</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>2275203.15653226</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>2423118.42372011</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>2570428.35640093</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>2658840.53708718</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>2817118.58613591</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>2897983.37108834</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>3069698.17068308</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>3228436.11863523</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>3469138.48142909</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>3640367.36907264</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>3905443.06508279</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>4079321.09800539</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>4283318.85956032</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>4571175.38398798</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>4910447.375045845</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>5179090.921316504</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>5557329.123766179</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>5912656.720889831</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>6381418.715935039</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>6900236.005266465</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>7330728.485608376</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>7850443.899478033</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>8259704.344947293</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>7763733.859067322</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>8355832.645318739</v>
       </c>
     </row>
-    <row r="7" spans="1:73">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GFCF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>80759.1630669031</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>78692.0897413731</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>74365.4812594822</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>76722.5741353834</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>87129.9142044154</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>97704.4781624647</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>116847.773185811</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>105727.735998138</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>105561.691033976</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>111299.656951243</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>118710.616714203</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>134420.931071253</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>143252.279060465</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>159940.377831626</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>172265.820008683</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>177802.279511464</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>180330.464999303</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>191983.950294825</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>202242.204264458</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>202380.026403664</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>191154.694492324</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>211029.173664179</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>220098.864549619</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>214295.215984066</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>222538.276746737</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>218545.271919382</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>242436.452086813</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>275224.835842454</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>289459.547851488</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>289271.478207101</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>296163.134197554</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>295789.461713769</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>312490.581365271</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>335400.374623233</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>340990.194004609</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>356695.873826868</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>390688.296731408</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>433844.730376921</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>448865.958209348</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>488046.088932989</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>568474.501284709</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>524681.315467146</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>580297.559893499</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>575503.366558836</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>608646.586810544</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>682415.298557715</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>714509.6672766251</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>779518.7862991981</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>862295.082725403</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>1006653.58841264</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>988594.405791358</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>1207965.73414767</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>1199300.33961439</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>1260656.59494118</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>1405051.84623015</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>1636059.6785551</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>1863048.41824222</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>2167263.70580829</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>2236601.84200337</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>2408303.07583042</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>2674327.74682683</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>2997732.868869198</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>3145793.194808742</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>3194924.310026874</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>3278096.095367952</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>3492183.057645332</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>3787567.619766181</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>4083079.090914966</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>4540509.24162885</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>4611021.475468159</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>4131279.06927041</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>4732872.462901314</v>
       </c>
     </row>
-    <row r="8" spans="1:73">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>7468.49827131145</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>7014.0708138711</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1857.99808602458</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>-4231.15253372091</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>2053.42067853528</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>2586.77241938073</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>7900.40434026263</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>12659.6327734671</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>-853.1539528274971</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>7953.73782740694</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>10882.725488569</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>9242.563054274609</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>8006.50889755582</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>6535.63365657906</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>11042.8770495997</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>8337.22145071297</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>11758.9338829712</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>9927.97289670007</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>2548.43530332924</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>12865.9247371013</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>15327.5645991372</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>20343.8009560203</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>5758.43033787735</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>20946.7564013449</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>26395.2949921934</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>3853.11368788415</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>13509.3888162637</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>19996.3766403366</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>38635.3360689484</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>27577.5893549661</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>1782.23775731204</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>41894.9654496457</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>31713.124147498</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>13289.0587417911</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>30854.9666321893</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>48440.2278079941</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>37655.5425589856</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>10671.0556924187</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>42926.3724923965</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>28521.2420721807</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>26750.4528072473</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>-3181.51339426583</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>32554.8905742726</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>-6776.50667767486</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>38234.3461177842</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>60870.0927490939</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>-40056.5736919944</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>30064.440313797</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>-9272.66425648545</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>93929.082308176</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>30759.2612747113</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>-6181.61740211948</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>35605.5222009719</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>38480.5031255661</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>142341.310662149</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>180277.472904871</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>237188.265873186</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>311521.500575526</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>151471.429386928</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>254051.060339208</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>367536.521768708</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>207983.187815356</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>201528</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>129758</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>274751.2112421638</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>239556.8424856793</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>122639.3339211299</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>206436.2663739578</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>262770.7938247246</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>108283.5538340723</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>-11572.85500163805</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>187937.3580879128</v>
       </c>
     </row>
-    <row r="9" spans="1:73">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Valuables</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="n">
         <v>35662.5281687906</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>32759.6981073084</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>30998.2813031822</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>29712.7693621733</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>49501.6899054061</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>77839.70488452879</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>76626.7089360369</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>87090.8863719955</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>89612.3342449348</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>113738.261394732</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>179220.732600556</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>237367.104397073</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>253033.33328728</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>259949.2792629762</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>148879.093769888</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>187956.7897304769</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>185986.4058157079</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>151478.8726120036</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>212306.5154541958</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>191704.4340833712</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>164526.7578759596</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>207980.2524239387</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>339088.0499949522</v>
       </c>
     </row>
-    <row r="10" spans="1:73">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Exports of goods and services</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>31816.3810744503</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>35447.5955491027</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>31240.5318670274</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>27414.1843304509</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>33303.4565599378</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>36094.5704578687</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>32378.711455401</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>32634.7786518563</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>28209.5309930748</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>29735.1328128898</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>29383.7064043045</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>29329.0899648729</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>29159.0307387331</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>31609.5783962158</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>29551.1469528168</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>25454.1237909854</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>32031.5615756402</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>33619.0891751439</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>34674.0699023859</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>34002.0849327677</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>44732.400450829</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>45203.0019474439</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>48926.7594528116</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>51355.2175689924</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>55566.2413121862</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>64706.2425071183</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>77530.2671845396</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>74764.48635485821</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>80598.38188103271</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>89588.4793390111</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>94280.52336564451</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>93510.31366529581</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>99140.10960105791</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>98233.0586216481</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>105401.961813086</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>98745.92186320529</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>104110.176579833</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>117360.568712297</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>126130.99836676</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>141240.398922232</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>156924.323503598</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>172086.8009577</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>180507.428461916</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>205380.618814157</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>232169.778883193</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>305061.972366719</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>324249.548097204</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>316700.447161068</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>360672.156506341</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>425591.231238553</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>502850.982325505</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>524521.4686954611</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>635116.835135885</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>695975.127028739</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>885116.193721418</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>1115999.41162511</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>1343594.16098668</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>1422416.63712192</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>1632623.28988323</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>1553698.60087054</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>1856330.11895894</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>2143931</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>2289835.984044295</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>2468268.916837573</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>2512144.636384021</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>2370281.636303613</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>2488422.579399369</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>2602011.798064813</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>2912480.482621648</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>2813609.381218706</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>2553682.949099156</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>3091630.580854979</v>
       </c>
     </row>
-    <row r="11" spans="1:73">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Imports of goods and services</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>33843.2646633218</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>47889.8477643313</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>33773.7413892034</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>30560.9423167238</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>39011.3645792323</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>44049.1612553666</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>54571.0083566714</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>58573.0663061483</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>47694.2180502769</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>42450.5657832665</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>49539.1527474158</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>44706.1619963538</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>46453.8221659745</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>48029.5306194622</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>49652.8052096258</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>44163.0878919527</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>56803.5687005871</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>54563.4529105079</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>46727.6084638833</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>40636.6015817568</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>47916.6324285209</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>56555.2745973826</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>55487.2770402784</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>59967.927889972</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>52317.1681311519</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>52986.5460399006</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>53991.2872272167</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>68782.5316160068</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>68816.3339790427</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>82112.2260695709</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>93898.7776270165</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>103316.280802377</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>106885.000901095</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>130382.788786218</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>111698.854451471</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>127192.501164371</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>148922.0285499</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>146437.682329119</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
         <v>159901.856094268</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" t="n">
         <v>163234.803728879</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="n">
         <v>168728.997897774</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" t="n">
         <v>168754.645524401</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" t="n">
         <v>204409.26087686</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>243793.334450726</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>298894.512458264</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>382961.219336951</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>373617.012611568</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>422937.014242796</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>511100.735817618</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>546839.4908715771</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>571937.873004201</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>588777.14567752</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>659411.676381345</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>750963.845891376</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>917642.034289956</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>1213761.86022999</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>1474777.02988872</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>1621540.75212585</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>1985554.3675929</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>1947316.24032593</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>2255223.77072747</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>2715554</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>2879079.139452964</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>2644555.083500584</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>2667595.260959616</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>2511539.772950992</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>2621592.781150462</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>3078273.807799204</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>3349860.571060546</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>3321585.712311832</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>2862871.268077738</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>3718262.522468137</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>